--- a/config/journal/journalFilterSecVIE.xlsx
+++ b/config/journal/journalFilterSecVIE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f215465b21b5e6e2/Studium/34_Github/PyPowerSim/config/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f215465b21b5e6e2/Studium/34_Github/PyPowerSim/config/journal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="13_ncr:1_{D0567261-BC65-4AF6-8E07-2DF890D750FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D56A94BF-8CE9-4BE7-978A-6A2C3F315033}"/>
+  <xr:revisionPtr revIDLastSave="38" documentId="13_ncr:1_{D0567261-BC65-4AF6-8E07-2DF890D750FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{47ABE918-7A00-41DA-AC95-2B307E9C021C}"/>
   <bookViews>
-    <workbookView xWindow="4428" yWindow="3948" windowWidth="23040" windowHeight="12204" activeTab="3" xr2:uid="{DB7D2548-4471-4992-93B1-3EC0BA66F7EA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="2" xr2:uid="{DB7D2548-4471-4992-93B1-3EC0BA66F7EA}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="254">
   <si>
     <t>#</t>
   </si>
@@ -821,6 +821,21 @@
 (sin): sinusoidal, 
 (tri): triangular,
 (tar): trapezoidal</t>
+  </si>
+  <si>
+    <t>Trafo Model</t>
+  </si>
+  <si>
+    <t>TraMdl</t>
+  </si>
+  <si>
+    <t>Phi DAB</t>
+  </si>
+  <si>
+    <t>phase-shift between primary and secondary votlage DAB converter</t>
+  </si>
+  <si>
+    <t>PhiDAB</t>
   </si>
 </sst>
 </file>
@@ -1446,10 +1461,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2136,10 +2147,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86190CFD-1D2B-4FE4-A04E-A3C453840C86}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2330,121 +2341,141 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="26" t="s">
-        <v>88</v>
+        <v>251</v>
       </c>
       <c r="B10" s="49" t="s">
         <v>56</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>77</v>
+        <v>252</v>
       </c>
       <c r="D10" s="52" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="29">
-        <v>1</v>
+        <v>253</v>
+      </c>
+      <c r="E10" s="11">
+        <v>10</v>
       </c>
       <c r="F10" s="55" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="26" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B11" s="49" t="s">
         <v>56</v>
       </c>
       <c r="C11" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="29">
+        <v>1</v>
+      </c>
+      <c r="F11" s="55" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D11" s="52" t="s">
+      <c r="D12" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E12" s="11">
         <v>600</v>
       </c>
-      <c r="F11" s="55" t="s">
+      <c r="F12" s="55" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="27" t="s">
+    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="B12" s="50" t="s">
+      <c r="B13" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C13" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="D12" s="53" t="s">
+      <c r="D13" s="53" t="s">
         <v>66</v>
       </c>
-      <c r="E12" s="24">
+      <c r="E13" s="24">
         <v>0</v>
       </c>
-      <c r="F12" s="56" t="s">
+      <c r="F13" s="56" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="25" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="B13" s="51" t="s">
+      <c r="B14" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C14" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="D13" s="54" t="s">
+      <c r="D14" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="30">
+      <c r="E14" s="30">
         <v>0.5</v>
       </c>
-      <c r="F13" s="57" t="s">
+      <c r="F14" s="57" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="26" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="B14" s="49" t="s">
+      <c r="B15" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C15" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="D14" s="52" t="s">
+      <c r="D15" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="E14" s="28">
+      <c r="E15" s="28">
         <v>25</v>
       </c>
-      <c r="F14" s="55" t="s">
+      <c r="F15" s="55" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="27" t="s">
+    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="B15" s="50" t="s">
+      <c r="B16" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C16" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="D15" s="53" t="s">
+      <c r="D16" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="E15" s="31">
+      <c r="E16" s="31">
         <v>25</v>
       </c>
-      <c r="F15" s="56" t="s">
+      <c r="F16" s="56" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2458,7 +2489,7 @@
       <formula1>5</formula1>
       <formula2>100</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E10" xr:uid="{509CB883-7406-4BD7-9F12-E7F3076592AF}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E11" xr:uid="{509CB883-7406-4BD7-9F12-E7F3076592AF}">
       <formula1>0</formula1>
       <formula2>1.273</formula2>
     </dataValidation>
@@ -2471,7 +2502,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{799FBFCB-8244-4B83-8CC9-EBD2890613E5}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -2766,10 +2797,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{245B3F0A-B85A-4162-A12D-AC7176B54015}">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3319,7 +3350,7 @@
     </row>
     <row r="28" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A28" s="33" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="B28" s="62" t="s">
         <v>166</v>
@@ -3328,30 +3359,30 @@
         <v>191</v>
       </c>
       <c r="D28" s="52" t="s">
-        <v>153</v>
-      </c>
-      <c r="E28" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="E28" s="18" t="s">
         <v>171</v>
       </c>
-      <c r="F28" s="55" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F28" s="57" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A29" s="33" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="B29" s="62" t="s">
         <v>166</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="D29" s="52" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>97</v>
+        <v>171</v>
       </c>
       <c r="F29" s="55" t="s">
         <v>22</v>
@@ -3359,81 +3390,101 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="33" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="B30" s="62" t="s">
         <v>166</v>
       </c>
       <c r="C30" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="D30" s="52" t="s">
+        <v>154</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="F30" s="55" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="33" t="s">
+        <v>228</v>
+      </c>
+      <c r="B31" s="62" t="s">
+        <v>166</v>
+      </c>
+      <c r="C31" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="D30" s="52" t="s">
+      <c r="D31" s="52" t="s">
         <v>155</v>
       </c>
-      <c r="E30" s="11">
+      <c r="E31" s="11">
         <v>1</v>
       </c>
-      <c r="F30" s="55" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="34" t="s">
+      <c r="F31" s="55" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="34" t="s">
         <v>229</v>
       </c>
-      <c r="B31" s="63" t="s">
+      <c r="B32" s="63" t="s">
         <v>166</v>
       </c>
-      <c r="C31" s="14" t="s">
+      <c r="C32" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="D31" s="53" t="s">
+      <c r="D32" s="53" t="s">
         <v>156</v>
       </c>
-      <c r="E31" s="24">
+      <c r="E32" s="24">
         <v>1</v>
       </c>
-      <c r="F31" s="56" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="32" t="s">
+      <c r="F32" s="56" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="B32" s="61" t="s">
+      <c r="B33" s="61" t="s">
         <v>167</v>
       </c>
-      <c r="C32" s="17" t="s">
+      <c r="C33" s="17" t="s">
         <v>200</v>
       </c>
-      <c r="D32" s="54" t="s">
+      <c r="D33" s="54" t="s">
         <v>157</v>
       </c>
-      <c r="E32" s="18">
+      <c r="E33" s="18">
         <v>1</v>
       </c>
-      <c r="F32" s="57" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="34" t="s">
+      <c r="F33" s="57" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="63" t="s">
+      <c r="B34" s="63" t="s">
         <v>167</v>
       </c>
-      <c r="C33" s="14" t="s">
+      <c r="C34" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="D33" s="53" t="s">
+      <c r="D34" s="53" t="s">
         <v>158</v>
       </c>
-      <c r="E33" s="24">
+      <c r="E34" s="24">
         <v>2</v>
       </c>
-      <c r="F33" s="56" t="s">
+      <c r="F34" s="56" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3451,7 +3502,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5" xr:uid="{9D931B16-8DBB-4320-9C50-FA16D061031E}">
       <formula1>"RE, FE, SM, AM"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6 E9:E11 E25 E32" xr:uid="{7BE6246F-D0E4-4835-A57D-61D617CCED04}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6 E9:E11 E25 E33" xr:uid="{7BE6246F-D0E4-4835-A57D-61D617CCED04}">
       <formula1>"0, 1"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E13" xr:uid="{7673DE90-8C38-46FF-9FB4-B656D095FE62}">
@@ -3463,7 +3514,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E15" xr:uid="{90D98357-ACED-4653-AB7B-A3CEC801E876}">
       <formula1>"PI, HY"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E22 E28" xr:uid="{DE992E13-D1C1-46ED-BEA8-BE094B6B7715}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E22 E28:E29" xr:uid="{DE992E13-D1C1-46ED-BEA8-BE094B6B7715}">
       <formula1>"con, pwl, tab"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E23" xr:uid="{A70C38F5-821B-4F3A-BDB2-CC8CF690BF2C}">
@@ -3472,10 +3523,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E24" xr:uid="{7C364B69-56D0-48CC-AD38-5F95308F6901}">
       <formula1>"D, DT"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E29" xr:uid="{929AF257-5302-40CF-95CE-90A8E96F7A27}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E30" xr:uid="{929AF257-5302-40CF-95CE-90A8E96F7A27}">
       <formula1>"Elco, MLCC, Film"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E33" xr:uid="{FCEC61A7-870F-4FD7-9209-49AF3D7561F8}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E34" xr:uid="{FCEC61A7-870F-4FD7-9209-49AF3D7561F8}">
       <formula1>"0, 1, 2"</formula1>
     </dataValidation>
   </dataValidations>
